--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1063.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1063.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
         <v>3.049656929920972</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1063.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1063.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.189845085144043</v>
+      </c>
+      <c r="B1">
+        <v>2.575979471206665</v>
+      </c>
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="B1">
-        <v>3.049656929920972</v>
-      </c>
-      <c r="C1">
-        <v>1.743862161230974</v>
-      </c>
       <c r="D1">
-        <v>1.411930648256748</v>
+        <v>2.203083276748657</v>
       </c>
       <c r="E1">
-        <v>1.314428873698822</v>
+        <v>1.179607152938843</v>
       </c>
     </row>
   </sheetData>
